--- a/03 Assessments/notas AV1 CLOUD computer 01Maio2023 yduqs.xlsx
+++ b/03 Assessments/notas AV1 CLOUD computer 01Maio2023 yduqs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YduqsArea1\25 WydenArea1ProgramacaoMicrocontroladores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YduqsArea1\23 WydenArea1ComputacaoNuvemWebServicesLinux\03 Assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554034CC-988C-45CB-A6AB-576C94D24029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD4341D-5C59-4A8A-B8CA-C3701A431FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37207522-E8FF-4681-8F81-32F57A53DE4E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Equipe</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Klaus</t>
   </si>
   <si>
-    <t>Gabriel Macedo</t>
-  </si>
-  <si>
     <t>Naydson Silva</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Renato</t>
   </si>
   <si>
-    <t>Michel Carvalho</t>
-  </si>
-  <si>
     <t>Acesse site de Vinicus Serra dev ??? Erro; http://www.viniciusnunes.dev.br/</t>
   </si>
   <si>
@@ -131,21 +125,12 @@
     <t>Não Registro.br; não DNS</t>
   </si>
   <si>
-    <t>mongoose</t>
-  </si>
-  <si>
     <t>Edivaldo de jesus santos Filho  </t>
   </si>
   <si>
     <t>Taun Dantas</t>
   </si>
   <si>
-    <t>Vinicius Luis Nunes</t>
-  </si>
-  <si>
-    <t>Bohr (não acessa); Outras formas; plataforma umbler</t>
-  </si>
-  <si>
     <t>Caique Souza</t>
   </si>
   <si>
@@ -167,12 +152,6 @@
     <t>http://atividade.matecnologia.app.br/; não funciona</t>
   </si>
   <si>
-    <t>Pq não registraram o dominio no nome de vcs? AZURE; podcast enviado pelo Teams, fora da tarefa e não funciona</t>
-  </si>
-  <si>
-    <t>enviou quis pelo Teams, fora da tarefa</t>
-  </si>
-  <si>
     <t>WORD??? Sem múltiplas respostas</t>
   </si>
   <si>
@@ -180,13 +159,71 @@
   </si>
   <si>
     <t>Bohr(github)???; Falta evidências do registro.br ???; DNS ???; Site(ok)</t>
+  </si>
+  <si>
+    <t>Pq não registraram o dominio no nome de vcs? AZURE; podcast enviado pelo Teams, fora da tarefa e não funciona; Erro Apache Atividade 4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">enviou quis pelo Teams, fora da tarefa 4, http://atividade4.trabalhocloud.com.br/ ; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PodCast postada no chat Teams não posssui audio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>variáveis de ambiente; bd não conectou; mongoose; Luis Silva MESMO aluno Vinicius Luis Nunes; QUIS word(Luis) e kahoot</t>
+  </si>
+  <si>
+    <t>Acesse site de Vinicus Serra dev ??? Erro; http://www.viniciusnunes.dev.br/; dns/registro.br mostro no word (ok)</t>
+  </si>
+  <si>
+    <t>Mesma pessoa</t>
+  </si>
+  <si>
+    <t>não podcast</t>
+  </si>
+  <si>
+    <t>Michael Carvalho</t>
+  </si>
+  <si>
+    <t>Vinicius Santos</t>
+  </si>
+  <si>
+    <t>Aonde está registrado ? http://trabalhobacana.epizy.com/; Registro/DNS/Site</t>
+  </si>
+  <si>
+    <t>Gabriel Macedo Trisi</t>
+  </si>
+  <si>
+    <t>Luis Vinicius Nunes</t>
+  </si>
+  <si>
+    <t>Mongo não conecta; Bohr (não acessa); 0,5 Quiz Word; Outras formas; plataforma umbler; mongo não conectou; sem SITE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +266,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,12 +332,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -294,6 +339,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,24 +380,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -650,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AED4F9D-46A6-4463-AA32-0C4C94548B61}">
-  <dimension ref="C1:K51"/>
+  <dimension ref="B1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,8 +724,8 @@
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D1" s="19" t="s">
+    <row r="1" spans="3:11" s="13" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
@@ -694,7 +757,7 @@
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
         <v>11</v>
@@ -710,23 +773,23 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="21">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="16">
         <v>3</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
@@ -740,554 +803,546 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
+        <v>2</v>
+      </c>
+      <c r="H8" s="16">
+        <v>1</v>
+      </c>
+      <c r="I8" s="16">
         <v>4</v>
       </c>
-      <c r="K6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="21">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21">
-        <v>1</v>
-      </c>
-      <c r="G9" s="21">
-        <v>2</v>
-      </c>
-      <c r="H9" s="21">
-        <v>1</v>
-      </c>
-      <c r="I9" s="21">
+      <c r="J8" s="16">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="16">
+        <v>3</v>
+      </c>
+      <c r="J10" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14">
         <v>4</v>
       </c>
-      <c r="J9" s="21">
-        <v>9</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="15"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="21">
-        <v>1</v>
-      </c>
-      <c r="F13" s="21">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="21">
-        <v>3</v>
-      </c>
-      <c r="J13" s="21">
-        <v>5.5</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" s="16">
+        <v>4</v>
+      </c>
+      <c r="J14" s="16">
+        <v>8</v>
+      </c>
+      <c r="K14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="J16" s="16">
+        <v>9.5</v>
+      </c>
+      <c r="K16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="21">
-        <v>1</v>
-      </c>
-      <c r="G14" s="21">
-        <v>0</v>
-      </c>
-      <c r="J14" s="21">
-        <v>5.5</v>
-      </c>
-      <c r="K14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="21">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="21">
-        <v>5.5</v>
-      </c>
-    </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17">
+      <c r="D17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="G19" s="16">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="16">
         <v>4</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="21">
-        <v>1</v>
-      </c>
-      <c r="F17" s="21">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0.5</v>
-      </c>
-      <c r="I17" s="21">
-        <v>4</v>
-      </c>
-      <c r="J17" s="21">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D19" s="5"/>
+      <c r="J19" s="16">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="21">
-        <v>1</v>
-      </c>
-      <c r="G21" s="21">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
-      <c r="I21" s="21">
-        <v>1</v>
-      </c>
-      <c r="J21" s="21">
-        <v>7</v>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
       </c>
       <c r="K21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="21">
-        <v>1</v>
-      </c>
-      <c r="G22" s="21">
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="6"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="21">
-        <v>1</v>
-      </c>
-      <c r="G25" s="21">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>1.5</v>
-      </c>
-      <c r="I25" s="21">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
         <v>4</v>
       </c>
-      <c r="J25" s="21">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="12"/>
+      <c r="J28">
+        <v>9</v>
+      </c>
+      <c r="K28" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>7</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>21</v>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="E29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="G29" s="1">
-        <v>0</v>
+      <c r="G29">
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>4</v>
       </c>
       <c r="J29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K29" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="10" t="s">
-        <v>22</v>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D31" s="10"/>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C33">
-        <v>8</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="K30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>2.5</v>
+      </c>
+      <c r="J32">
+        <v>7.5</v>
+      </c>
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D33" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="22"/>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>4</v>
       </c>
-      <c r="J33">
+      <c r="K35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="21"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="22"/>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>13</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
         <v>6</v>
       </c>
-      <c r="K33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D34" s="14"/>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D35" s="14"/>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C37">
-        <v>9</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0.5</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>2.5</v>
-      </c>
-      <c r="K37" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C40">
-        <v>10</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>5</v>
-      </c>
-      <c r="K40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>5</v>
-      </c>
-      <c r="K41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C42">
-        <v>12</v>
-      </c>
-      <c r="D42" t="s">
-        <v>34</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>5</v>
-      </c>
-      <c r="K42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C44">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
-      <c r="I44">
-        <v>2.5</v>
-      </c>
-      <c r="J44">
-        <v>7.5</v>
-      </c>
-      <c r="K44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="J45">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C47">
-        <v>12</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0.5</v>
-      </c>
-      <c r="I47">
-        <v>1.5</v>
-      </c>
-      <c r="J47">
-        <v>3</v>
-      </c>
-      <c r="K47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49">
-        <v>13</v>
-      </c>
-      <c r="D49" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>4</v>
-      </c>
-      <c r="K49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C51">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0.5</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0.5</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51" s="22" t="s">
-        <v>42</v>
+      <c r="K39" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K51" r:id="rId1" xr:uid="{DC1F77EA-0B3F-4615-A9BF-9295962E4FB2}"/>
-    <hyperlink ref="K37" r:id="rId2" xr:uid="{2D4C1E2F-28C4-401B-A4EE-12EA99952BD7}"/>
+    <hyperlink ref="K25" r:id="rId1" xr:uid="{DC1F77EA-0B3F-4615-A9BF-9295962E4FB2}"/>
+    <hyperlink ref="K24" r:id="rId2" xr:uid="{2D4C1E2F-28C4-401B-A4EE-12EA99952BD7}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/03 Assessments/notas AV1 CLOUD computer 01Maio2023 yduqs.xlsx
+++ b/03 Assessments/notas AV1 CLOUD computer 01Maio2023 yduqs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YduqsArea1\23 WydenArea1ComputacaoNuvemWebServicesLinux\03 Assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BBFC38-06A3-45DD-B332-CCED3451B052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B551F0C-F73B-4942-BB68-61C1E074B1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37207522-E8FF-4681-8F81-32F57A53DE4E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Equipe</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>***</t>
+  </si>
+  <si>
+    <t>Desistiu</t>
   </si>
 </sst>
 </file>
@@ -351,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -360,14 +363,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -686,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AED4F9D-46A6-4463-AA32-0C4C94548B61}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,22 +753,22 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10">
-        <v>2</v>
-      </c>
-      <c r="J5" s="9"/>
+      <c r="D5" s="14"/>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="8"/>
       <c r="K5">
         <v>0</v>
       </c>
@@ -782,22 +783,22 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="10" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="10">
-        <v>2</v>
-      </c>
-      <c r="J6" s="11"/>
+      <c r="D6" s="14"/>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="9"/>
       <c r="K6">
         <v>0</v>
       </c>
@@ -809,35 +810,31 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="D7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="8">
-        <v>2</v>
-      </c>
-      <c r="J8" s="9"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="4">
+        <v>2</v>
+      </c>
+      <c r="J8" s="8"/>
       <c r="K8" s="4">
         <v>1</v>
       </c>
@@ -852,37 +849,33 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="D9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="9">
-        <v>2</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10">
-        <v>2</v>
-      </c>
-      <c r="J10" s="9"/>
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="8"/>
       <c r="K10">
         <v>0.5</v>
       </c>
@@ -897,22 +890,21 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C11" s="10" t="s">
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11"/>
+      <c r="D11" s="9">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9"/>
       <c r="M11" s="4">
         <v>7.5</v>
       </c>
@@ -921,58 +913,53 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C12" s="10" t="s">
+      <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="11">
-        <v>2</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="10">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11"/>
+      <c r="D12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9"/>
       <c r="M12" s="4">
         <v>7.5</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="D13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>4</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="9">
-        <v>2</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9"/>
+      <c r="D14" s="8">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8"/>
       <c r="K14">
         <v>2</v>
       </c>
@@ -987,35 +974,31 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="D15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>5</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="8">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="8">
-        <v>2</v>
-      </c>
-      <c r="J16" s="9"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="4">
+        <v>2</v>
+      </c>
+      <c r="J16" s="8"/>
       <c r="K16">
         <v>2</v>
       </c>
@@ -1030,22 +1013,21 @@
       </c>
     </row>
     <row r="17" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="10" t="s">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="11">
-        <v>2</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="8">
-        <v>2</v>
-      </c>
-      <c r="J17" s="11"/>
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="4">
+        <v>2</v>
+      </c>
+      <c r="J17" s="9"/>
       <c r="K17">
         <v>2</v>
       </c>
@@ -1057,37 +1039,33 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="D18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>6</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="9">
-        <v>2</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="8">
-        <v>2</v>
-      </c>
-      <c r="J19" s="9"/>
+      <c r="D19" s="8">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="4">
+        <v>2</v>
+      </c>
+      <c r="J19" s="8"/>
       <c r="K19">
         <v>1.5</v>
       </c>
@@ -1099,37 +1077,33 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
+      <c r="D20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>7</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="9">
-        <v>2</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D21" s="8">
+        <v>2</v>
+      </c>
+      <c r="E21">
         <v>0.5</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10">
-        <v>1</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9"/>
+      <c r="F21" s="8"/>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8"/>
       <c r="K21">
         <v>2</v>
       </c>
@@ -1144,22 +1118,22 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C22" s="10" t="s">
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="10">
-        <v>1</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="10">
-        <v>1</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="10">
-        <v>0</v>
-      </c>
-      <c r="J22" s="11"/>
+      <c r="D22" s="14"/>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9"/>
       <c r="K22">
         <v>2</v>
       </c>
@@ -1168,37 +1142,33 @@
       </c>
     </row>
     <row r="23" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
+      <c r="D23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>8</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="9">
-        <v>2</v>
-      </c>
-      <c r="E24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9"/>
+      <c r="D24" s="8">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8"/>
       <c r="K24">
         <v>2</v>
       </c>
@@ -1216,20 +1186,18 @@
       <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="13">
-        <v>2</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="10">
+      <c r="D25" s="11">
+        <v>2</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25">
         <v>0.5</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="13"/>
+      <c r="H25" s="11"/>
+      <c r="J25" s="11"/>
       <c r="M25">
         <v>8</v>
       </c>
@@ -1238,37 +1206,33 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
+      <c r="D26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>9</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="13">
-        <v>2</v>
-      </c>
-      <c r="E27" s="10">
-        <v>1</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="10">
-        <v>1</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="10">
-        <v>0</v>
-      </c>
-      <c r="J27" s="13"/>
+      <c r="D27" s="11">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11"/>
       <c r="K27">
         <v>0</v>
       </c>
@@ -1283,37 +1247,33 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="11"/>
+      <c r="D28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>10</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="11">
-        <v>2</v>
-      </c>
-      <c r="E29" s="10">
-        <v>1</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="10">
-        <v>2</v>
-      </c>
-      <c r="J29" s="11"/>
+      <c r="D29" s="9">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" s="9"/>
       <c r="K29">
         <v>1</v>
       </c>
@@ -1328,24 +1288,24 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="11">
-        <v>2</v>
-      </c>
-      <c r="E30" s="10">
-        <v>1</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="10">
-        <v>1</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="10">
-        <v>2</v>
-      </c>
-      <c r="J30" s="11"/>
+      <c r="D30" s="9">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30" s="9"/>
       <c r="K30">
         <v>1</v>
       </c>
@@ -1360,37 +1320,33 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="11"/>
+      <c r="D31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>11</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="11">
-        <v>2</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="10">
-        <v>1</v>
-      </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="10">
-        <v>2</v>
-      </c>
-      <c r="J32" s="11"/>
+      <c r="D32" s="9">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32" s="9"/>
       <c r="K32">
         <v>2</v>
       </c>
@@ -1405,61 +1361,57 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C33" s="10" t="s">
+      <c r="C33" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="11">
-        <v>2</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="10">
-        <v>1</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="10">
-        <v>2</v>
-      </c>
-      <c r="J33" s="11"/>
+      <c r="D33" s="9">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33" s="9"/>
       <c r="M33">
         <v>7.5</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="11"/>
+      <c r="D34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35">
         <v>12</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="15">
-        <v>2</v>
-      </c>
-      <c r="E35" s="10">
-        <v>1</v>
-      </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="10">
-        <v>1</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="10">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15"/>
+      <c r="D35" s="13">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" s="13"/>
       <c r="K35">
         <v>2</v>
       </c>
@@ -1474,14 +1426,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="11"/>
+      <c r="D36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="J36" s="9"/>
       <c r="N36" s="6"/>
     </row>
     <row r="37" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -1489,22 +1437,22 @@
       <c r="B37">
         <v>13</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="10">
-        <v>1</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="10">
-        <v>1</v>
-      </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="10">
-        <v>2</v>
-      </c>
-      <c r="J37" s="11"/>
+      <c r="D37" s="14"/>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37" s="9"/>
       <c r="K37" s="1">
         <v>0</v>
       </c>
@@ -1519,14 +1467,10 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="11"/>
+      <c r="D38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -1535,24 +1479,24 @@
       <c r="B39">
         <v>14</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="15">
-        <v>2</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="10">
-        <v>1</v>
-      </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="10">
-        <v>0</v>
-      </c>
-      <c r="J39" s="11"/>
+      <c r="D39" s="13">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" s="9"/>
       <c r="K39">
         <v>1</v>
       </c>
@@ -1573,8 +1517,29 @@
       <c r="C41" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="15">
-        <v>2</v>
+      <c r="D41" s="13">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
